--- a/2020-02-15-Plan-Project-HR-Admin.xlsx
+++ b/2020-02-15-Plan-Project-HR-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7BDF24-86C7-440F-9891-D06667068531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B15E605-B0EF-4F15-813C-89CD6952BCEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>4.1.4 Edit employee</t>
   </si>
   <si>
-    <t>4.1.5 Delect employee</t>
-  </si>
-  <si>
     <t>4.2 Attendance</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t xml:space="preserve">4.2.1 Attendance                         </t>
+  </si>
+  <si>
+    <t>4.1.5 Delete employee</t>
   </si>
 </sst>
 </file>
@@ -3087,7 +3087,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$F$4" horiz="1" max="365" page="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$F$4" horiz="1" max="365" page="2" val="33"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3440,8 +3440,8 @@
   </sheetPr>
   <dimension ref="A1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="E4" s="159"/>
       <c r="F4" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G4" s="31"/>
       <c r="L4" s="26" t="str">
         <f ca="1">TEXT(L5,"mmmm")</f>
-        <v>พฤศจิกายน</v>
+        <v>ธันวาคม</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -3582,7 +3582,7 @@
       <c r="Y4" s="26"/>
       <c r="Z4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(Z5,"mmmm")=S4,TEXT(Z5,"mmmm")=L4),"",TEXT(Z5,"mmmm"))</f>
-        <v>ธันวาคม</v>
+        <v>มกราคม</v>
       </c>
       <c r="AA4" s="26"/>
       <c r="AB4" s="26"/>
@@ -3622,7 +3622,7 @@
       <c r="BA4" s="26"/>
       <c r="BB4" s="26" t="str">
         <f ca="1">IF(OR(TEXT(BB5,"mmmm")=AU4,TEXT(BB5,"mmmm")=AN4,TEXT(BB5,"mmmm")=AG4,TEXT(BB5,"mmmm")=Z4),"",TEXT(BB5,"mmmm"))</f>
-        <v>มกราคม</v>
+        <v>กุมภาพันธ์</v>
       </c>
       <c r="BC4" s="26"/>
       <c r="BD4" s="26"/>
@@ -3657,227 +3657,227 @@
       <c r="K5" s="36"/>
       <c r="L5" s="15">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>43789</v>
+        <v>43822</v>
       </c>
       <c r="M5" s="16">
         <f ca="1">L5+1</f>
-        <v>43790</v>
+        <v>43823</v>
       </c>
       <c r="N5" s="16">
         <f t="shared" ref="N5:BA5" ca="1" si="0">M5+1</f>
-        <v>43791</v>
+        <v>43824</v>
       </c>
       <c r="O5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43792</v>
+        <v>43825</v>
       </c>
       <c r="P5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43793</v>
+        <v>43826</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43794</v>
+        <v>43827</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43795</v>
+        <v>43828</v>
       </c>
       <c r="S5" s="15">
         <f ca="1">R5+1</f>
-        <v>43796</v>
+        <v>43829</v>
       </c>
       <c r="T5" s="16">
         <f ca="1">S5+1</f>
-        <v>43797</v>
+        <v>43830</v>
       </c>
       <c r="U5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43798</v>
+        <v>43831</v>
       </c>
       <c r="V5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43799</v>
+        <v>43832</v>
       </c>
       <c r="W5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43800</v>
+        <v>43833</v>
       </c>
       <c r="X5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43801</v>
+        <v>43834</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43802</v>
+        <v>43835</v>
       </c>
       <c r="Z5" s="15">
         <f ca="1">Y5+1</f>
-        <v>43803</v>
+        <v>43836</v>
       </c>
       <c r="AA5" s="16">
         <f ca="1">Z5+1</f>
-        <v>43804</v>
+        <v>43837</v>
       </c>
       <c r="AB5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43805</v>
+        <v>43838</v>
       </c>
       <c r="AC5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43806</v>
+        <v>43839</v>
       </c>
       <c r="AD5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43807</v>
+        <v>43840</v>
       </c>
       <c r="AE5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43808</v>
+        <v>43841</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43809</v>
+        <v>43842</v>
       </c>
       <c r="AG5" s="15">
         <f ca="1">AF5+1</f>
-        <v>43810</v>
+        <v>43843</v>
       </c>
       <c r="AH5" s="16">
         <f ca="1">AG5+1</f>
-        <v>43811</v>
+        <v>43844</v>
       </c>
       <c r="AI5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43812</v>
+        <v>43845</v>
       </c>
       <c r="AJ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43813</v>
+        <v>43846</v>
       </c>
       <c r="AK5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43814</v>
+        <v>43847</v>
       </c>
       <c r="AL5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43815</v>
+        <v>43848</v>
       </c>
       <c r="AM5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43816</v>
+        <v>43849</v>
       </c>
       <c r="AN5" s="15">
         <f ca="1">AM5+1</f>
-        <v>43817</v>
+        <v>43850</v>
       </c>
       <c r="AO5" s="16">
         <f ca="1">AN5+1</f>
-        <v>43818</v>
+        <v>43851</v>
       </c>
       <c r="AP5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43819</v>
+        <v>43852</v>
       </c>
       <c r="AQ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43820</v>
+        <v>43853</v>
       </c>
       <c r="AR5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43821</v>
+        <v>43854</v>
       </c>
       <c r="AS5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43822</v>
+        <v>43855</v>
       </c>
       <c r="AT5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
+        <v>43856</v>
       </c>
       <c r="AU5" s="15">
         <f ca="1">AT5+1</f>
-        <v>43824</v>
+        <v>43857</v>
       </c>
       <c r="AV5" s="16">
         <f ca="1">AU5+1</f>
-        <v>43825</v>
+        <v>43858</v>
       </c>
       <c r="AW5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43826</v>
+        <v>43859</v>
       </c>
       <c r="AX5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43827</v>
+        <v>43860</v>
       </c>
       <c r="AY5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43828</v>
+        <v>43861</v>
       </c>
       <c r="AZ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43829</v>
+        <v>43862</v>
       </c>
       <c r="BA5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43830</v>
+        <v>43863</v>
       </c>
       <c r="BB5" s="15">
         <f ca="1">BA5+1</f>
-        <v>43831</v>
+        <v>43864</v>
       </c>
       <c r="BC5" s="16">
         <f ca="1">BB5+1</f>
-        <v>43832</v>
+        <v>43865</v>
       </c>
       <c r="BD5" s="16">
         <f t="shared" ref="BD5:BH5" ca="1" si="1">BC5+1</f>
-        <v>43833</v>
+        <v>43866</v>
       </c>
       <c r="BE5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43834</v>
+        <v>43867</v>
       </c>
       <c r="BF5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43835</v>
+        <v>43868</v>
       </c>
       <c r="BG5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43836</v>
+        <v>43869</v>
       </c>
       <c r="BH5" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>43837</v>
+        <v>43870</v>
       </c>
       <c r="BI5" s="15">
         <f ca="1">BH5+1</f>
-        <v>43838</v>
+        <v>43871</v>
       </c>
       <c r="BJ5" s="16">
         <f ca="1">BI5+1</f>
-        <v>43839</v>
+        <v>43872</v>
       </c>
       <c r="BK5" s="16">
         <f t="shared" ref="BK5:BO5" ca="1" si="2">BJ5+1</f>
-        <v>43840</v>
+        <v>43873</v>
       </c>
       <c r="BL5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>43841</v>
+        <v>43874</v>
       </c>
       <c r="BM5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>43842</v>
+        <v>43875</v>
       </c>
       <c r="BN5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>43843</v>
+        <v>43876</v>
       </c>
       <c r="BO5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>43844</v>
+        <v>43877</v>
       </c>
     </row>
     <row r="6" spans="1:67" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3987,27 +3987,27 @@
       </c>
       <c r="L7" s="9" t="str">
         <f t="shared" ref="L7" ca="1" si="3">LEFT(TEXT(L5,"ddd"),1)</f>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="M7" s="9" t="str">
         <f t="shared" ref="M7:AU7" ca="1" si="4">LEFT(TEXT(M5,"ddd"),1)</f>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="N7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="O7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="P7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="Q7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="R7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4015,27 +4015,27 @@
       </c>
       <c r="S7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="T7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="U7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="V7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="W7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="X7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="Y7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4043,27 +4043,27 @@
       </c>
       <c r="Z7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="AA7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="AB7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="AC7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="AD7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="AE7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="AF7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4071,27 +4071,27 @@
       </c>
       <c r="AG7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="AH7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="AI7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="AJ7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="AK7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="AL7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="AM7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4099,27 +4099,27 @@
       </c>
       <c r="AN7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="AO7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="AP7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="AQ7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="AR7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="AS7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="AT7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4127,27 +4127,27 @@
       </c>
       <c r="AU7" s="9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="AV7" s="9" t="str">
         <f t="shared" ref="AV7:BO7" ca="1" si="5">LEFT(TEXT(AV5,"ddd"),1)</f>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="AW7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="AX7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="AY7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="AZ7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="BA7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4155,27 +4155,27 @@
       </c>
       <c r="BB7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="BC7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="BD7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="BE7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="BF7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="BG7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="BH7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4183,27 +4183,27 @@
       </c>
       <c r="BI7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>พ</v>
+        <v>จ</v>
       </c>
       <c r="BJ7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>พ</v>
+        <v>อ</v>
       </c>
       <c r="BK7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ศ</v>
+        <v>พ</v>
       </c>
       <c r="BL7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ส</v>
+        <v>พ</v>
       </c>
       <c r="BM7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>อ</v>
+        <v>ศ</v>
       </c>
       <c r="BN7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>จ</v>
+        <v>ส</v>
       </c>
       <c r="BO7" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6252,7 +6252,7 @@
     <row r="20" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>6</v>
@@ -6527,7 +6527,7 @@
     <row r="23" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="78" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="65" t="s">
@@ -6618,7 +6618,7 @@
     <row r="24" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="111" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="76"/>
       <c r="D24" s="76" t="s">
@@ -6709,7 +6709,7 @@
     <row r="25" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="65"/>
       <c r="D25" s="76" t="s">
@@ -6800,7 +6800,7 @@
     <row r="26" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="136"/>
       <c r="D26" s="152"/>
@@ -6871,7 +6871,7 @@
     <row r="27" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="65" t="s">
@@ -6962,7 +6962,7 @@
     <row r="28" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="65" t="s">
@@ -7052,7 +7052,7 @@
     </row>
     <row r="29" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65" t="s">
@@ -7142,7 +7142,7 @@
     </row>
     <row r="30" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="76" t="s">
@@ -7232,7 +7232,7 @@
     </row>
     <row r="31" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="76"/>
       <c r="D31" s="76" t="s">
@@ -7322,7 +7322,7 @@
     </row>
     <row r="32" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="135" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="136"/>
       <c r="D32" s="136"/>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="33" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="76" t="s">
@@ -7482,7 +7482,7 @@
     </row>
     <row r="34" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="76" t="s">
@@ -7572,7 +7572,7 @@
     </row>
     <row r="35" spans="1:67" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="76" t="s">
@@ -7754,7 +7754,7 @@
         <v>54</v>
       </c>
       <c r="E37" s="81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="80">
         <f>F36</f>
@@ -7767,14 +7767,16 @@
       <c r="H37" s="82">
         <v>5</v>
       </c>
-      <c r="I37" s="105"/>
+      <c r="I37" s="105">
+        <v>43856</v>
+      </c>
       <c r="J37" s="106">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K37" s="106" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L37" s="108"/>
       <c r="M37" s="35"/>
@@ -7924,7 +7926,7 @@
         <v>54</v>
       </c>
       <c r="E39" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="55">
         <f>F38</f>
@@ -7937,14 +7939,16 @@
       <c r="H39" s="87">
         <v>6</v>
       </c>
-      <c r="I39" s="99"/>
+      <c r="I39" s="99">
+        <v>43862</v>
+      </c>
       <c r="J39" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K39" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L39" s="108"/>
       <c r="M39" s="35"/>
@@ -8093,7 +8097,7 @@
         <v>54</v>
       </c>
       <c r="E41" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="57">
         <f>F40</f>
@@ -8106,14 +8110,16 @@
       <c r="H41" s="54">
         <v>6</v>
       </c>
-      <c r="I41" s="94"/>
+      <c r="I41" s="94">
+        <v>43868</v>
+      </c>
       <c r="J41" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I41-Milestones[[#This Row],[End Date]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K41" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I41-G41&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L41" s="108"/>
       <c r="M41" s="35"/>
@@ -8262,7 +8268,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="57">
         <f>F42</f>
@@ -8275,14 +8281,16 @@
       <c r="H43" s="54">
         <v>1</v>
       </c>
-      <c r="I43" s="94"/>
+      <c r="I43" s="94">
+        <v>43869</v>
+      </c>
       <c r="J43" s="71">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I43-Milestones[[#This Row],[End Date]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K43" s="71" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I43-G43&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L43" s="108"/>
       <c r="M43" s="35"/>
@@ -8523,7 +8531,7 @@
         <v>54</v>
       </c>
       <c r="E46" s="118">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F46" s="55">
         <f>G45</f>
@@ -8536,14 +8544,16 @@
       <c r="H46" s="87">
         <v>7</v>
       </c>
-      <c r="I46" s="99"/>
+      <c r="I46" s="99">
+        <v>43878</v>
+      </c>
       <c r="J46" s="70">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I46-Milestones[[#This Row],[End Date]])</f>
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="K46" s="70" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I46-G46&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
